--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>0.04369766214984174</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.003248820422499</v>
+        <v>-2.011986544037592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2706672053604388</v>
+        <v>0.2980746008907895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0444683636575935</v>
+        <v>0.04223056469460488</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06792917372102235</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.099278391293773</v>
+        <v>-2.088190643311171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1115297519867192</v>
+        <v>0.1322207010247203</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0005498814931806504</v>
+        <v>-0.004600974628141252</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09455306893301844</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.303669519199492</v>
+        <v>-2.294800662638898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07845741321073253</v>
+        <v>0.08816552062253137</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02319928582421978</v>
+        <v>-0.02358048624718732</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.116787830253694</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.330051638072229</v>
+        <v>-2.333153084713493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1092260815906418</v>
+        <v>0.1260702609203929</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01870965972267733</v>
+        <v>-0.03105018477532078</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1330602695585695</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.308293327849919</v>
+        <v>-2.333728849832343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06508612221438485</v>
+        <v>0.09447880954755052</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009416908291743917</v>
+        <v>-0.02617325904404331</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1426733479641809</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.984490100088436</v>
+        <v>-2.044333687128925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1509458757215625</v>
+        <v>0.1700431020312209</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05267858189348366</v>
+        <v>-0.06855420718855887</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.148616390502859</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.795314663305551</v>
+        <v>-1.831127985602843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1533690905702825</v>
+        <v>0.1823726485116829</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001012201366155678</v>
+        <v>-0.01491412335127416</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1571730741267776</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.363193182877673</v>
+        <v>-1.365623716774514</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1941532663830716</v>
+        <v>0.2457958600040065</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03852598251022173</v>
+        <v>-0.04869823955702584</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1779537900012872</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7763531243791149</v>
+        <v>-0.7595046756046265</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2262887669995733</v>
+        <v>0.2731361642599149</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03272556086816315</v>
+        <v>0.005878682439743881</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2199888042948512</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4020679820445482</v>
+        <v>-0.3294892512735595</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1008939552255866</v>
+        <v>0.1402875118953902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05611479898009767</v>
+        <v>0.02547482386298223</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.289683648962515</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2719809744981541</v>
+        <v>0.3578724438805226</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.009796888873357957</v>
+        <v>0.01203583167151553</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1890750668284673</v>
+        <v>0.1480822981442304</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3909513016742816</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7753003252848633</v>
+        <v>0.9123940255595544</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0523528842521002</v>
+        <v>-0.07316337774274394</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2470608354875819</v>
+        <v>0.2153431305346527</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5253703417761585</v>
       </c>
       <c r="E14" t="n">
-        <v>1.26449147351538</v>
+        <v>1.433040002931322</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3591673814834433</v>
+        <v>-0.3867046901179413</v>
       </c>
       <c r="G14" t="n">
-        <v>0.41168269558662</v>
+        <v>0.3804700049540382</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6904400058269293</v>
       </c>
       <c r="E15" t="n">
-        <v>1.837169783820525</v>
+        <v>1.9987426504565</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7412588985597084</v>
+        <v>-0.7590759013688727</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4253522377938975</v>
+        <v>0.4235297948117743</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8785200129808383</v>
       </c>
       <c r="E16" t="n">
-        <v>2.532304917999761</v>
+        <v>2.686697798429058</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9323848616668333</v>
+        <v>-1.000645963967123</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5316980069916889</v>
+        <v>0.5332337872557404</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.080751328596506</v>
       </c>
       <c r="E17" t="n">
-        <v>2.970458513920677</v>
+        <v>3.152064835105119</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.258366726085661</v>
+        <v>-1.338481636738549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5675778106427468</v>
+        <v>0.6022182554786528</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.287299056991721</v>
       </c>
       <c r="E18" t="n">
-        <v>3.494487721286367</v>
+        <v>3.689009722721625</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.504767360443755</v>
+        <v>-1.579696725502931</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6781448408443116</v>
+        <v>0.7233777780733011</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.489277999116468</v>
       </c>
       <c r="E19" t="n">
-        <v>3.744711338446318</v>
+        <v>3.979472246609353</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.785313793968913</v>
+        <v>-1.861763691275222</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8371853168304282</v>
+        <v>0.8890328437987504</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.680316474024263</v>
       </c>
       <c r="E20" t="n">
-        <v>4.04494845109961</v>
+        <v>4.27455065017871</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.986813287946169</v>
+        <v>-2.083145379473111</v>
       </c>
       <c r="G20" t="n">
-        <v>1.097490922777025</v>
+        <v>1.160521955274199</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.857300847108644</v>
       </c>
       <c r="E21" t="n">
-        <v>4.3726441926201</v>
+        <v>4.603414999715849</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.311105672090404</v>
+        <v>-2.41036477294506</v>
       </c>
       <c r="G21" t="n">
-        <v>1.229963864004673</v>
+        <v>1.292132468664926</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.017871330897139</v>
       </c>
       <c r="E22" t="n">
-        <v>4.659409377365381</v>
+        <v>4.905931995858825</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.563578066785526</v>
+        <v>-2.635616407836916</v>
       </c>
       <c r="G22" t="n">
-        <v>1.250784726146821</v>
+        <v>1.332693413510025</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.159456443801793</v>
       </c>
       <c r="E23" t="n">
-        <v>4.937766195661013</v>
+        <v>5.189897644697832</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.746265167409164</v>
+        <v>-2.81259892037093</v>
       </c>
       <c r="G23" t="n">
-        <v>1.499815338463053</v>
+        <v>1.564779819505519</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.278520566666303</v>
       </c>
       <c r="E24" t="n">
-        <v>5.064477216255422</v>
+        <v>5.321218445767103</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.892455224656876</v>
+        <v>-2.96284616996037</v>
       </c>
       <c r="G24" t="n">
-        <v>1.608528209807304</v>
+        <v>1.65501270426498</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.374619931744971</v>
       </c>
       <c r="E25" t="n">
-        <v>5.298309825148446</v>
+        <v>5.534178349260455</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.072685564794574</v>
+        <v>-3.132699624664214</v>
       </c>
       <c r="G25" t="n">
-        <v>1.663439368334932</v>
+        <v>1.711530393855162</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.447316275545766</v>
       </c>
       <c r="E26" t="n">
-        <v>5.359378742828522</v>
+        <v>5.595699828082678</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.224079160295962</v>
+        <v>-3.277023629601415</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6851568138719</v>
+        <v>1.720385832160867</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.495835902883041</v>
       </c>
       <c r="E27" t="n">
-        <v>5.511131886568853</v>
+        <v>5.732767301768269</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.180458853336294</v>
+        <v>-3.232012093578085</v>
       </c>
       <c r="G27" t="n">
-        <v>1.683216046278487</v>
+        <v>1.726437465115562</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.517141851373585</v>
       </c>
       <c r="E28" t="n">
-        <v>5.510689084157534</v>
+        <v>5.73224764935168</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.170159427828388</v>
+        <v>-3.219734390355147</v>
       </c>
       <c r="G28" t="n">
-        <v>1.719845442441269</v>
+        <v>1.733592444574493</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.51144399250586</v>
       </c>
       <c r="E29" t="n">
-        <v>5.525694352646889</v>
+        <v>5.737675943374738</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.343924303832218</v>
+        <v>-3.366509056571522</v>
       </c>
       <c r="G29" t="n">
-        <v>1.73256716791688</v>
+        <v>1.751322838647559</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.479188281878007</v>
       </c>
       <c r="E30" t="n">
-        <v>5.517204256826556</v>
+        <v>5.695066884897118</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.265337244474584</v>
+        <v>-3.292733661432753</v>
       </c>
       <c r="G30" t="n">
-        <v>1.704691963227463</v>
+        <v>1.717315491474118</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.421351466381181</v>
       </c>
       <c r="E31" t="n">
-        <v>5.466749178763251</v>
+        <v>5.626427631777245</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.21382761356118</v>
+        <v>-3.247663268064117</v>
       </c>
       <c r="G31" t="n">
-        <v>1.580376101130644</v>
+        <v>1.610634265904115</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.337905896241482</v>
       </c>
       <c r="E32" t="n">
-        <v>5.25435528165792</v>
+        <v>5.416810093592472</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.201599313913059</v>
+        <v>-3.231575085413195</v>
       </c>
       <c r="G32" t="n">
-        <v>1.512887768327794</v>
+        <v>1.521338829224816</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.232282869660926</v>
       </c>
       <c r="E33" t="n">
-        <v>5.062135120856709</v>
+        <v>5.22643189323504</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.24955890152745</v>
+        <v>-3.270980840496534</v>
       </c>
       <c r="G33" t="n">
-        <v>1.402155449622831</v>
+        <v>1.424194933277122</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.108043598730951</v>
       </c>
       <c r="E34" t="n">
-        <v>4.871128702202227</v>
+        <v>5.006622580541809</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.036273910313391</v>
+        <v>-3.097297998823727</v>
       </c>
       <c r="G34" t="n">
-        <v>1.283457566879538</v>
+        <v>1.318309044269599</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.968646627342135</v>
       </c>
       <c r="E35" t="n">
-        <v>4.628665715733218</v>
+        <v>4.764581659181109</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.990196842867783</v>
+        <v>-3.051886049876112</v>
       </c>
       <c r="G35" t="n">
-        <v>1.259196752120531</v>
+        <v>1.288591269215726</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.81709686300507</v>
       </c>
       <c r="E36" t="n">
-        <v>4.428564159947069</v>
+        <v>4.551741300140399</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.945922091021965</v>
+        <v>-3.006303933059684</v>
       </c>
       <c r="G36" t="n">
-        <v>1.230004118769338</v>
+        <v>1.249486814946701</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.659609881158134</v>
       </c>
       <c r="E37" t="n">
-        <v>4.082702540990315</v>
+        <v>4.20042089112675</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.976445266329482</v>
+        <v>-3.032371942783896</v>
       </c>
       <c r="G37" t="n">
-        <v>1.173622441490071</v>
+        <v>1.19230309197751</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.501161505053948</v>
       </c>
       <c r="E38" t="n">
-        <v>3.814258153533192</v>
+        <v>3.932552268788478</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.925012180461011</v>
+        <v>-2.985236967924468</v>
       </c>
       <c r="G38" t="n">
-        <v>1.117475583671352</v>
+        <v>1.145756385610806</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.345526652929805</v>
       </c>
       <c r="E39" t="n">
-        <v>3.556167779484545</v>
+        <v>3.649212398563814</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.944417416712427</v>
+        <v>-3.012892296209916</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994223870833813</v>
+        <v>1.036500684864249</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.194839079448384</v>
       </c>
       <c r="E40" t="n">
-        <v>3.310379505485905</v>
+        <v>3.398944867115137</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.981892772853858</v>
+        <v>-3.044690815652515</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8930875964577714</v>
+        <v>0.9211250400472029</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.053173562816436</v>
       </c>
       <c r="E41" t="n">
-        <v>2.988847622324632</v>
+        <v>3.084500262217676</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.853123269975424</v>
+        <v>-2.925840452740035</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8820931663387109</v>
+        <v>0.9048023428960713</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9226015776655844</v>
       </c>
       <c r="E42" t="n">
-        <v>2.628624811113168</v>
+        <v>2.732579691258107</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.911328000157491</v>
+        <v>-2.97601435737136</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8589472865767989</v>
+        <v>0.8770472925799743</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8042639258350893</v>
       </c>
       <c r="E43" t="n">
-        <v>2.451458712455453</v>
+        <v>2.522654753052254</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.730778061585178</v>
+        <v>-2.829809662027406</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7744348478445577</v>
+        <v>0.7971165779714645</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6977754523605929</v>
       </c>
       <c r="E44" t="n">
-        <v>2.06741422937224</v>
+        <v>2.159729993242796</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.651112052550377</v>
+        <v>-2.749642298196318</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8290483650819324</v>
+        <v>0.8182771659305617</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6041730117330661</v>
       </c>
       <c r="E45" t="n">
-        <v>1.924392100119558</v>
+        <v>1.98365565259646</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.680981697852759</v>
+        <v>-2.768655965373263</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7447890434305416</v>
+        <v>0.7341642252415904</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5215630430932507</v>
       </c>
       <c r="E46" t="n">
-        <v>1.667352619396947</v>
+        <v>1.713587046377157</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.630640065035328</v>
+        <v>-2.729511866260249</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6688520894133781</v>
+        <v>0.659147031604963</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4470034893070413</v>
       </c>
       <c r="E47" t="n">
-        <v>1.475681387204809</v>
+        <v>1.513989894990678</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.55027020753956</v>
+        <v>-2.654733761528907</v>
       </c>
       <c r="G47" t="n">
-        <v>0.56000747520295</v>
+        <v>0.5491521069981881</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3771868709160316</v>
       </c>
       <c r="E48" t="n">
-        <v>1.333469232610848</v>
+        <v>1.349081982094245</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.544316771813822</v>
+        <v>-2.649171284956964</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5118652163458722</v>
+        <v>0.4971142847787205</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3113356566583759</v>
       </c>
       <c r="E49" t="n">
-        <v>1.181151302323849</v>
+        <v>1.181315370985894</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.51467401700319</v>
+        <v>-2.614410685747739</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4452923744788218</v>
+        <v>0.4216384307931785</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.247965843560409</v>
       </c>
       <c r="E50" t="n">
-        <v>1.064904690780406</v>
+        <v>1.047958044776962</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.488410222741742</v>
+        <v>-2.59338732994091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3669407445024127</v>
+        <v>0.3517226136968719</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1862458196039496</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7871760907818246</v>
+        <v>0.7869809161652652</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.375227852678281</v>
+        <v>-2.498397673823491</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2823697533852038</v>
+        <v>0.2644228374718922</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1256946445514103</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6588310926944075</v>
+        <v>0.6402669370562269</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.35428927584552</v>
+        <v>-2.469683828203546</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2122410739727121</v>
+        <v>0.2090225225615125</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.06684045165001028</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4529340706377982</v>
+        <v>0.4424464846011153</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.33687299092098</v>
+        <v>-2.454616347805162</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2097940722175989</v>
+        <v>0.1979518523578586</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.009675065647845905</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2777435050520697</v>
+        <v>0.2755496203778069</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.300648582087559</v>
+        <v>-2.406649136182311</v>
       </c>
       <c r="G54" t="n">
-        <v>0.124385050090538</v>
+        <v>0.1163279979506962</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04566382360109366</v>
       </c>
       <c r="E55" t="n">
-        <v>0.234489150498451</v>
+        <v>0.2235124080790162</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.257510112462522</v>
+        <v>-2.363368555039592</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07729307463882049</v>
+        <v>0.07260766400004191</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.09914471858523426</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1376361867135663</v>
+        <v>0.1286221690319068</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.280970711293636</v>
+        <v>-2.385042086287834</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01022558710292729</v>
+        <v>0.01173331101584849</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1500887291770358</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04077902949012906</v>
+        <v>-0.04853417089498061</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.273640684600478</v>
+        <v>-2.377655336971738</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04817302184816121</v>
+        <v>0.03028465831981742</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1980100868710162</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1932793260594762</v>
+        <v>-0.2006813233924906</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.189216684366365</v>
+        <v>-2.308913617178172</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.03020666447937822</v>
+        <v>-0.03723051099280886</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2422045760911653</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.286381887603037</v>
+        <v>-0.2914863137467415</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.278138849591495</v>
+        <v>-2.381301442777338</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.05362517878379666</v>
+        <v>-0.06980027513115515</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2830414463439341</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5138328964552461</v>
+        <v>-0.4816473823432511</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.340564840777335</v>
+        <v>-2.439132291584559</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.06381024416481247</v>
+        <v>-0.08007987821706691</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.320899246188758</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6178426694610923</v>
+        <v>-0.5893105802028182</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.314060127848572</v>
+        <v>-2.414733634752606</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.08923844709911576</v>
+        <v>-0.1147941234548594</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3567653761642297</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6233258563450574</v>
+        <v>-0.6057034182317758</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.297204360025963</v>
+        <v>-2.392236100670078</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1496212040178502</v>
+        <v>-0.1623429294934612</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.390984713381502</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.8241233316233763</v>
+        <v>-0.8033476036113072</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.39083267319288</v>
+        <v>-2.480869773415105</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1468710716863932</v>
+        <v>-0.180558210504542</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4242445322118327</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.9428157250805786</v>
+        <v>-0.912142204326242</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.382337088086457</v>
+        <v>-2.455891691940242</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1749085152758247</v>
+        <v>-0.1977451652546255</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.456748977756247</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.089962137949431</v>
+        <v>-1.07104361839806</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.383911293353143</v>
+        <v>-2.45135510194659</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1799245029214007</v>
+        <v>-0.2059937324869662</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4883941456707919</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.240320393102039</v>
+        <v>-1.226047639345458</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.421863607463791</v>
+        <v>-2.480844156746682</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2557656993923147</v>
+        <v>-0.2743627907470398</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5185037337908457</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.380790004322531</v>
+        <v>-1.372159626746546</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.320707653304449</v>
+        <v>-2.378623891006414</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2494383822917304</v>
+        <v>-0.2708722147140107</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5467447039235015</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.500041695040311</v>
+        <v>-1.490069491975481</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.360508027065643</v>
+        <v>-2.426150739900653</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2881652956618483</v>
+        <v>-0.3156507610388228</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.572454855810534</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.610397692687721</v>
+        <v>-1.619541013552851</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.397058133540447</v>
+        <v>-2.453982640222021</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2888856119810878</v>
+        <v>-0.3058566548116025</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5944431887935067</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.742793173989422</v>
+        <v>-1.76208557491564</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.325808419924093</v>
+        <v>-2.391542620860615</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2788389985936938</v>
+        <v>-0.3133727073111688</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6116488101555879</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.812591886315793</v>
+        <v>-1.83527544620473</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.34861579371041</v>
+        <v>-2.396866618447949</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3526692865933694</v>
+        <v>-0.3682387317087171</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6236357804596561</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.865413456604882</v>
+        <v>-1.891713236186258</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.381887576547693</v>
+        <v>-2.423415855586115</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4254255042812918</v>
+        <v>-0.4323029698323029</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6296226454928954</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.87179078720096</v>
+        <v>-1.918155737205993</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.313601467499657</v>
+        <v>-2.357427927648066</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4595078716979732</v>
+        <v>-0.4684432096123323</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6288984336596896</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.868188595684086</v>
+        <v>-1.929680188393148</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.379387511693703</v>
+        <v>-2.421279913376143</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4441061547687313</v>
+        <v>-0.4486415249210299</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.620485357885825</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.832744275396226</v>
+        <v>-1.893037983896155</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.286705795417098</v>
+        <v>-2.329388654296604</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4863016870275155</v>
+        <v>-0.4877734256205085</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6042802289374974</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.707570254907222</v>
+        <v>-1.784076264915791</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.262519390980654</v>
+        <v>-2.277533808280161</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.434009527885844</v>
+        <v>-0.4435078225848414</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5798549390814944</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.565686237637351</v>
+        <v>-1.635395901544917</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.135949871983251</v>
+        <v>-2.164332530675722</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4607356420202671</v>
+        <v>-0.4665256190046364</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5473412253127838</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.46563850934766</v>
+        <v>-1.534673600986743</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.113784134748873</v>
+        <v>-2.128997996109676</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4257981658147849</v>
+        <v>-0.4345987112595826</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5068996280728513</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.266360346475121</v>
+        <v>-1.357701457104233</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.0345292122502</v>
+        <v>-2.06260630068362</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.418380310544175</v>
+        <v>-0.4166121505022823</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4599160567638459</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.136878456246246</v>
+        <v>-1.209275430655563</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.013257008807258</v>
+        <v>-2.018158331365605</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3818283743073406</v>
+        <v>-0.3841619308165787</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4075214927241337</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8241458986884159</v>
+        <v>-0.8985123069629531</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.903563385014796</v>
+        <v>-1.917500072478489</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3345204869360542</v>
+        <v>-0.341345499308865</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3508390490259508</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6160293752891204</v>
+        <v>-0.6736113764602278</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.976406821359494</v>
+        <v>-1.9616937048743</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3000965639403939</v>
+        <v>-0.2986211658233403</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2909221630217976</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3504888201739951</v>
+        <v>-0.3991909862123276</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.911415503807251</v>
+        <v>-1.900163687162603</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2815598547326669</v>
+        <v>-0.2829022901421894</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.229892660802954</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.122299807302921</v>
+        <v>-0.1525738300139876</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.758500461177715</v>
+        <v>-1.746966861180409</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2717370822336394</v>
+        <v>-0.2766231567750681</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1701875465871127</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1751066634895833</v>
+        <v>0.1425680053057511</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.63976354351111</v>
+        <v>-1.627438266475385</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2305125436922382</v>
+        <v>-0.2280082093935107</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1144162053743303</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3889960860942993</v>
+        <v>0.355327244896453</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.479025048360927</v>
+        <v>-1.477059274019768</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2327424136864291</v>
+        <v>-0.233790867329759</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06605973100672109</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6300062415112944</v>
+        <v>0.5989582294614344</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.416588078602905</v>
+        <v>-1.40134067160488</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1488093995970986</v>
+        <v>-0.1523024153128347</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.02917879235858335</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8054932285459223</v>
+        <v>0.7915333640965128</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.299712638841735</v>
+        <v>-1.279681014055299</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.06702086660721425</v>
+        <v>-0.07666066290321731</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.006737945058513483</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8714842060873552</v>
+        <v>0.8839454954339948</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.053680396572396</v>
+        <v>-1.051812819460194</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07327865275064932</v>
+        <v>-0.07237353046635521</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.00155245806987543</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9726785852493325</v>
+        <v>1.005916212528718</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.027086635224828</v>
+        <v>-0.9944034258406061</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02822625204197728</v>
+        <v>-0.03920238454073532</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.01458400398689725</v>
       </c>
       <c r="E91" t="n">
-        <v>1.028524752174415</v>
+        <v>1.043987461171332</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7379281217439873</v>
+        <v>-0.7073235220261233</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04804928395696591</v>
+        <v>-0.05019559481844232</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04503890147678975</v>
       </c>
       <c r="E92" t="n">
-        <v>1.027420795749501</v>
+        <v>1.052580633586035</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4964702845502591</v>
+        <v>-0.4498345297647491</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08571920479427945</v>
+        <v>-0.08519711269498312</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08840302169092476</v>
       </c>
       <c r="E93" t="n">
-        <v>1.141503408731841</v>
+        <v>1.165165281386282</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2946609508692152</v>
+        <v>-0.2562493664889759</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05570866781556802</v>
+        <v>-0.06564488556047063</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1385430036189802</v>
       </c>
       <c r="E94" t="n">
-        <v>1.209740724125737</v>
+        <v>1.21732874726516</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07766337249579111</v>
+        <v>-0.03204801500248061</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1169654410640825</v>
+        <v>-0.1108851418375811</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1877059262592416</v>
       </c>
       <c r="E95" t="n">
-        <v>1.212328007636503</v>
+        <v>1.215849689624046</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05941081031724418</v>
+        <v>0.1166658940056146</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08076725881976198</v>
+        <v>-0.08135095290740987</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2291656466405471</v>
       </c>
       <c r="E96" t="n">
-        <v>1.201254897750142</v>
+        <v>1.175847432118848</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1512630344734714</v>
+        <v>0.2021682339962179</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1471156498777692</v>
+        <v>-0.1518394855191829</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2570497190323786</v>
       </c>
       <c r="E97" t="n">
-        <v>1.1631476637876</v>
+        <v>1.130365037333068</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2565103365324396</v>
+        <v>0.2917326456939632</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1539735979671244</v>
+        <v>-0.1669990639397559</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2690096950775013</v>
       </c>
       <c r="E98" t="n">
-        <v>1.119740219144117</v>
+        <v>1.062603460067036</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2687990183275595</v>
+        <v>0.3036376873834085</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1755721089721266</v>
+        <v>-0.1936489379895855</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2678371547332191</v>
       </c>
       <c r="E99" t="n">
-        <v>1.028938888313927</v>
+        <v>0.9836705756856859</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3044244850564135</v>
+        <v>0.3351638772438389</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1818176967020267</v>
+        <v>-0.1986356494426777</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2597147303298705</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9287112334245953</v>
+        <v>0.8836826196223163</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3500916858072476</v>
+        <v>0.3634154029908089</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1474553756947179</v>
+        <v>-0.1683408894286016</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2520731639754764</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9730177011456044</v>
+        <v>0.9283349123670417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3563598406021874</v>
+        <v>0.3665729623343336</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.225058633000757</v>
+        <v>-0.2349875316975387</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2535872188315202</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9720198709184446</v>
+        <v>0.9284105425309584</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3321813651345409</v>
+        <v>0.3355371486980087</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1898869472554035</v>
+        <v>-0.2108682185355367</v>
       </c>
     </row>
   </sheetData>
